--- a/Data/ukr_budget_receipt_per_year.xlsx
+++ b/Data/ukr_budget_receipt_per_year.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/privatization/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385" activeTab="1"/>
+    <workbookView xWindow="2980" yWindow="4300" windowWidth="19880" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="budget receipts per year" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,9 +39,6 @@
     <t>Data is given per year and was calculated from comulative total</t>
   </si>
   <si>
-    <t>Million UAN</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -40,13 +49,16 @@
   </si>
   <si>
     <t xml:space="preserve">Data in USD was calculated on the base of the currency exchange rate for the relevant year  </t>
+  </si>
+  <si>
+    <t>Million UAH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +96,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -128,14 +145,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -162,14 +179,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -196,9 +214,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -371,34 +390,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1202.5999999999999</v>
@@ -407,7 +426,7 @@
         <v>683.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -418,7 +437,7 @@
         <v>377.36</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -429,7 +448,7 @@
         <v>387.64</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -440,7 +459,7 @@
         <v>104.75</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -451,7 +470,7 @@
         <v>366.49</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -462,7 +481,7 @@
         <v>1711.8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -473,7 +492,7 @@
         <v>4098.58</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -484,7 +503,7 @@
         <v>103.54</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -495,7 +514,7 @@
         <v>486.79</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -506,7 +525,7 @@
         <v>60.09</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -517,7 +536,7 @@
         <v>80.36</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -528,7 +547,7 @@
         <v>109.71</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -539,7 +558,7 @@
         <v>1148.04</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -550,7 +569,7 @@
         <v>676.33</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -561,7 +580,7 @@
         <v>154.11000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -572,7 +591,7 @@
         <v>40.56</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -589,48 +608,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/ukr_budget_receipt_per_year.xlsx
+++ b/Data/ukr_budget_receipt_per_year.xlsx
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Ukrainian Budget Receipt from privatization (comulative total)</t>
-  </si>
-  <si>
     <t>Data source - data is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.85 http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Million UAH</t>
+  </si>
+  <si>
+    <t>Ukrainian Budget Receipt from privatization (per year)</t>
   </si>
 </sst>
 </file>
@@ -406,18 +406,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1202.5999999999999</v>
@@ -611,30 +611,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ukr_budget_receipt_per_year.xlsx
+++ b/Data/ukr_budget_receipt_per_year.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/privatization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="4300" windowWidth="19880" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="20060" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="budget receipts per year" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Data source - data is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.85 http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
+    <t>Ukrainian Budget Receipt from privatization (comulative total)</t>
   </si>
   <si>
     <t>Data is given per year and was calculated from comulative total</t>
@@ -48,10 +49,10 @@
     <t xml:space="preserve">Data in USD was calculated on the base of the currency exchange rate for the relevant year  </t>
   </si>
   <si>
+    <t xml:space="preserve">Data source - data is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.85 http://www.spfu.gov.ua/ru/documents/press-list/spf-reports/7389.html </t>
+  </si>
+  <si>
     <t>Million UAH</t>
-  </si>
-  <si>
-    <t>Ukrainian Budget Receipt from privatization (per year)</t>
   </si>
 </sst>
 </file>
@@ -393,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -409,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -611,18 +612,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -638,4 +641,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>